--- a/SorteioGrupos/documentos/Financiamentos.xlsx
+++ b/SorteioGrupos/documentos/Financiamentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARQUIVOS\SENAI\Planos_Ensino\2020_2_Semestre\ProjetoIntegrador1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD0C420-F6D1-481E-85D6-007B26332D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1921AF6E-EE16-4ABB-9334-340945FAB6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2EFEAD8-89AC-4165-9D5E-89350841DA2B}"/>
   </bookViews>
@@ -166,7 +166,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -232,16 +232,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -561,7 +551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E35660-47F2-415B-B371-9A876C5CB1D5}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,7 +684,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" ref="D7:D8" si="0">C7/12</f>
+        <f>C7/12</f>
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="E7">
@@ -702,11 +694,11 @@
         <v>950</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:G8" si="1">$B$1*(1+D7)^E7+F7</f>
+        <f>$B$1*(1+D7)^E7+F7</f>
         <v>16567.910220247708</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:H8" si="2">G7/$B$4</f>
+        <f>G7/$B$4</f>
         <v>637.22731616337342</v>
       </c>
       <c r="I7" s="5"/>
@@ -725,7 +717,7 @@
         <v>0.19989999999999999</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>C8/12</f>
         <v>1.6658333333333334E-2</v>
       </c>
       <c r="E8">
@@ -735,11 +727,11 @@
         <v>1110</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="1"/>
+        <f>$B$1*(1+D8)^E8+F8</f>
         <v>15976.221377234666</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="2"/>
+        <f>G8/$B$4</f>
         <v>614.4700529705641</v>
       </c>
       <c r="I8" s="5"/>
